--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R0caa82535a544e27"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R61ec052212fa449f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R61ec052212fa449f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rb56b538cb2804abc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rb56b538cb2804abc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Red526dba73194fe7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Red526dba73194fe7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Re1ae7a55bfc04916"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Re1ae7a55bfc04916"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R28c4ed42fe2b47f8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R28c4ed42fe2b47f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Re084bc26037a4d5b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Re084bc26037a4d5b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rbc09a37bb2234544"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rbc09a37bb2234544"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R582e2bc4ff944712"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R582e2bc4ff944712"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Re9d4c389847a417f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Re9d4c389847a417f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R7d662c99b16948bb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R7d662c99b16948bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rfcfc7327dc304440"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,23 +30,23 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:i/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="20"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FFFF0000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
@@ -59,7 +59,7 @@
       <a:uLn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rfcfc7327dc304440"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rad97f18b381f4821"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,23 +30,23 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:i/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="20"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FFFF0000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
@@ -59,7 +59,7 @@
       <a:uLn xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/006_FontVariations.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="Rad97f18b381f4821"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FontVariations" sheetId="1" r:id="R850953239ca54813"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
